--- a/data/classifier_test/broad_assets_ht_trendmode_test.xlsx
+++ b/data/classifier_test/broad_assets_ht_trendmode_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -606,18 +606,18 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -845,22 +845,22 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -869,21 +869,21 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -892,19 +892,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -945,21 +945,21 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1015,19 +1015,19 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1220,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1325,21 +1325,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1398,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,16 +1576,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1594,18 +1594,18 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1614,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1746,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1757,19 +1757,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1804,19 +1804,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1851,10 +1851,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1947,37 +1947,37 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2009,13 +2009,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2056,12 +2056,12 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -2184,22 +2184,22 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2289,22 +2289,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2389,13 +2389,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2427,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2474,12 +2474,12 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -2547,15 +2547,15 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2579,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -2623,18 +2623,18 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2716,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2734,18 +2734,18 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2816,12 +2816,12 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2848,21 +2848,21 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -2877,19 +2877,19 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2918,27 +2918,27 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -2962,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3003,15 +3003,15 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3049,19 +3049,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3076,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3096,13 +3096,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3120,12 +3120,12 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3149,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3190,18 +3190,18 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3225,30 +3225,30 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3391,22 +3391,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3421,27 +3421,27 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3453,13 +3453,13 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3567,21 +3567,21 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3605,21 +3605,21 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -3628,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -3666,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3684,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -3733,19 +3733,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -3771,22 +3771,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3801,15 +3801,15 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -3818,22 +3818,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -3859,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -3909,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4023,21 +4023,21 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4064,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4099,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4134,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4184,12 +4184,12 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4239,19 +4239,19 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -4260,12 +4260,12 @@
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4412,18 +4412,18 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -4546,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4564,12 +4564,12 @@
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4640,12 +4640,12 @@
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4797,13 +4797,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -4926,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5037,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5125,21 +5125,21 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -5151,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -5414,13 +5414,13 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5470,18 +5470,18 @@
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -5490,16 +5490,16 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -5514,12 +5514,12 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>1</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5645,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -5686,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -5747,13 +5747,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -5785,19 +5785,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -5853,15 +5853,15 @@
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -5870,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -5920,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -6022,10 +6022,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6051,25 +6051,25 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
         <v>1</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -6101,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -6127,31 +6127,31 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6165,13 +6165,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -6186,16 +6186,16 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="n">
         <v>1</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -6227,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
         <v>1</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -6297,13 +6297,13 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6402,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6414,13 +6414,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>1</v>
@@ -6431,19 +6431,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6452,16 +6452,16 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6469,25 +6469,25 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -6496,27 +6496,27 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -6525,13 +6525,13 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6569,13 +6569,13 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>1</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -6607,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" t="n">
         <v>1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -6762,27 +6762,27 @@
         <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
         <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -6800,10 +6800,10 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="n">
         <v>1</v>
@@ -6811,19 +6811,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -6832,16 +6832,16 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" t="n">
         <v>1</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -6861,33 +6861,33 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="n">
         <v>1</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -6952,18 +6952,18 @@
         <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -7031,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -7066,18 +7066,18 @@
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -7104,18 +7104,18 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -7153,37 +7153,37 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7191,19 +7191,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7221,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7229,37 +7229,37 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -7329,21 +7329,21 @@
         <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
         <v>1</v>
@@ -7457,19 +7457,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7484,10 +7484,10 @@
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -7525,15 +7525,15 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
         <v>1</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7583,19 +7583,19 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -7677,15 +7677,15 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7706,24 +7706,24 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -7753,15 +7753,15 @@
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -7770,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -7788,18 +7788,18 @@
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -7832,15 +7832,15 @@
         <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -7864,18 +7864,18 @@
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7884,10 +7884,10 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -7899,13 +7899,13 @@
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>1</v>
@@ -7913,31 +7913,31 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -7951,13 +7951,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>1</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8010,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -8019,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="K199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>1</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -8130,18 +8130,18 @@
         <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -8171,15 +8171,15 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -8217,13 +8217,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -8244,18 +8244,18 @@
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
         <v>1</v>
@@ -8293,16 +8293,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -8314,13 +8314,13 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>1</v>
@@ -8331,28 +8331,28 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -8381,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8402,12 +8402,12 @@
         <v>1</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -8419,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8431,21 +8431,21 @@
         <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -8454,19 +8454,19 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -8478,30 +8478,30 @@
         <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>1</v>
@@ -8510,21 +8510,21 @@
         <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
         <v>1</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>1</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -8568,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -8580,13 +8580,13 @@
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="n">
         <v>1</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -8627,15 +8627,15 @@
         <v>1</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -8644,28 +8644,28 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>1</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -8685,22 +8685,22 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
         <v>1</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -8735,53 +8735,433 @@
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
         <v>0</v>
       </c>
     </row>
